--- a/Uploads/IMOcrewlistForm5.xlsx
+++ b/Uploads/IMOcrewlistForm5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DB6875-0F11-4034-B7D5-333D85D196C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A0904A-EBF4-411B-9D68-342F63006DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="108" yWindow="96" windowWidth="22932" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>CREW LIST</t>
+  </si>
   <si>
     <t>No.</t>
   </si>
@@ -32,20 +35,20 @@
     <t>Ship Number</t>
   </si>
   <si>
-    <t>Test Name</t>
+    <t>Prasenjit Paul</t>
   </si>
   <si>
     <t>Master</t>
   </si>
   <si>
-    <t>ghgffg</t>
+    <t>jhjjg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +58,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -130,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -154,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -171,6 +181,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,52 +538,52 @@
     <col min="5" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -579,34 +592,34 @@
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="11"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="9"/>
@@ -615,7 +628,7 @@
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="9"/>
@@ -624,16 +637,16 @@
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="11"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -642,7 +655,7 @@
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -651,25 +664,25 @@
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="13"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -678,25 +691,25 @@
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -705,7 +718,7 @@
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -714,7 +727,7 @@
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -722,13 +735,25 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Uploads/IMOcrewlistForm5.xlsx
+++ b/Uploads/IMOcrewlistForm5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A0904A-EBF4-411B-9D68-342F63006DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E097E9D-C0D6-4D58-86A9-7D82A1ADE32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="108" yWindow="96" windowWidth="22932" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,20 +35,20 @@
     <t>Ship Number</t>
   </si>
   <si>
-    <t>Prasenjit Paul</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>jhjjg</t>
+    <t>Bingshu Baidya</t>
+  </si>
+  <si>
+    <t>MasterBB</t>
+  </si>
+  <si>
+    <t>jhjjg@g.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +73,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -137,10 +145,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -185,8 +194,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,7 +539,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,7 +590,7 @@
       <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -754,7 +767,10 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{95C28410-7921-49A5-89CC-916942AC8FFC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Uploads/IMOcrewlistForm5.xlsx
+++ b/Uploads/IMOcrewlistForm5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E097E9D-C0D6-4D58-86A9-7D82A1ADE32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4B589C-4347-4557-A645-523368D4EDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="108" yWindow="96" windowWidth="22932" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CREW LIST</t>
   </si>
@@ -32,16 +32,13 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Ship Number</t>
+    <t>Supratik Das</t>
   </si>
   <si>
-    <t>Bingshu Baidya</t>
+    <t>Master</t>
   </si>
   <si>
-    <t>MasterBB</t>
-  </si>
-  <si>
-    <t>jhjjg@g.com</t>
+    <t>sup@mail.com</t>
   </si>
 </sst>
 </file>
@@ -149,7 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -177,12 +174,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -536,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,20 +538,18 @@
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -571,204 +560,179 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{95C28410-7921-49A5-89CC-916942AC8FFC}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{934058B6-8324-486F-B31F-FC4CC343D14B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId2"/>

--- a/Uploads/IMOcrewlistForm5.xlsx
+++ b/Uploads/IMOcrewlistForm5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4B589C-4347-4557-A645-523368D4EDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3738783A-6ED4-4D9C-93FF-7DB3691BA65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="96" windowWidth="22932" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>CREW LIST</t>
   </si>
@@ -32,13 +32,19 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Supratik Das</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>sup@mail.com</t>
+    <t>amitbh</t>
+  </si>
+  <si>
+    <t>Scond Officer</t>
+  </si>
+  <si>
+    <t>abc@gmai.com</t>
+  </si>
+  <si>
+    <t>bingshu</t>
+  </si>
+  <si>
+    <t>Third Officer</t>
   </si>
 </sst>
 </file>
@@ -530,18 +536,18 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -549,7 +555,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -563,7 +569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -577,15 +583,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -593,7 +605,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -601,7 +613,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -609,7 +621,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -617,7 +629,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -625,7 +637,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -633,7 +645,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -641,7 +653,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -649,7 +661,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -657,7 +669,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -665,7 +677,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -673,7 +685,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -681,7 +693,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -689,7 +701,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -697,7 +709,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -705,7 +717,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -713,7 +725,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -721,7 +733,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -732,7 +744,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{934058B6-8324-486F-B31F-FC4CC343D14B}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{45F4C1E7-4291-42B5-AF4D-141BFEC9C19B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId2"/>

--- a/Uploads/IMOcrewlistForm5.xlsx
+++ b/Uploads/IMOcrewlistForm5.xlsx
@@ -3,19 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3738783A-6ED4-4D9C-93FF-7DB3691BA65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E0F8E4-3DE7-4AB7-BF69-7ABC4B8DDF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>CREW LIST</t>
   </si>
@@ -32,26 +43,173 @@
     <t>Email</t>
   </si>
   <si>
-    <t>amitbh</t>
-  </si>
-  <si>
-    <t>Scond Officer</t>
-  </si>
-  <si>
-    <t>abc@gmai.com</t>
-  </si>
-  <si>
-    <t>bingshu</t>
-  </si>
-  <si>
-    <t>Third Officer</t>
+    <t>2Off</t>
+  </si>
+  <si>
+    <t>3Off</t>
+  </si>
+  <si>
+    <t>ChiefEng</t>
+  </si>
+  <si>
+    <t>2Eng</t>
+  </si>
+  <si>
+    <t>3Eng</t>
+  </si>
+  <si>
+    <t>4Eng</t>
+  </si>
+  <si>
+    <t>DeckCad</t>
+  </si>
+  <si>
+    <t>Elect</t>
+  </si>
+  <si>
+    <t>EngCad</t>
+  </si>
+  <si>
+    <t>Bosun</t>
+  </si>
+  <si>
+    <t>Pumpman</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Fitter</t>
+  </si>
+  <si>
+    <t>Oiler</t>
+  </si>
+  <si>
+    <t>Wiper</t>
+  </si>
+  <si>
+    <t>ChiefCook</t>
+  </si>
+  <si>
+    <t>Messman</t>
+  </si>
+  <si>
+    <t>CSEN2Off</t>
+  </si>
+  <si>
+    <t>CSEN3Off</t>
+  </si>
+  <si>
+    <t>CSENDeckCad</t>
+  </si>
+  <si>
+    <t>CSENChiefEng</t>
+  </si>
+  <si>
+    <t>CSEN2Eng</t>
+  </si>
+  <si>
+    <t>CSEN3Eng</t>
+  </si>
+  <si>
+    <t>CSEN4Eng</t>
+  </si>
+  <si>
+    <t>CSENElect</t>
+  </si>
+  <si>
+    <t>CSENEngCad</t>
+  </si>
+  <si>
+    <t>CSENBosun</t>
+  </si>
+  <si>
+    <t>CSENPumpman</t>
+  </si>
+  <si>
+    <t>CSENAB</t>
+  </si>
+  <si>
+    <t>CSENOS</t>
+  </si>
+  <si>
+    <t>CSENFitter</t>
+  </si>
+  <si>
+    <t>CSENOiler</t>
+  </si>
+  <si>
+    <t>CSENWiper</t>
+  </si>
+  <si>
+    <t>CSENChiefCook</t>
+  </si>
+  <si>
+    <t>CSENMessman</t>
+  </si>
+  <si>
+    <t>CSEN2Off@gmail.com</t>
+  </si>
+  <si>
+    <t>CSEN3Off@gmail.com</t>
+  </si>
+  <si>
+    <t>CSENDeckCad@gmail.com</t>
+  </si>
+  <si>
+    <t>CSENChiefEng@gmail.com</t>
+  </si>
+  <si>
+    <t>CSEN2Eng@gmail.com</t>
+  </si>
+  <si>
+    <t>CSEN3Eng@gmail.com</t>
+  </si>
+  <si>
+    <t>CSEN4Eng@gmail.com</t>
+  </si>
+  <si>
+    <t>CSENElect@gmail.com</t>
+  </si>
+  <si>
+    <t>CSENEngCad@gmail.com</t>
+  </si>
+  <si>
+    <t>CSENBosun@gmail.com</t>
+  </si>
+  <si>
+    <t>CSENPumpman@gmail.com</t>
+  </si>
+  <si>
+    <t>CSENAB@gmail.com</t>
+  </si>
+  <si>
+    <t>CSENOS@gmail.com</t>
+  </si>
+  <si>
+    <t>CSENFitter@gmail.com</t>
+  </si>
+  <si>
+    <t>CSENOiler@gmail.com</t>
+  </si>
+  <si>
+    <t>CSENWiper@gmail.com</t>
+  </si>
+  <si>
+    <t>CSENChiefCook@gmail.com</t>
+  </si>
+  <si>
+    <t>CSENMessman@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,14 +234,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -148,9 +298,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -179,24 +328,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -533,29 +679,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -569,184 +718,281 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{45F4C1E7-4291-42B5-AF4D-141BFEC9C19B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Uploads/IMOcrewlistForm5.xlsx
+++ b/Uploads/IMOcrewlistForm5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3738783A-6ED4-4D9C-93FF-7DB3691BA65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929908A7-67D3-4417-8A62-E145FFF6BEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CREW LIST</t>
   </si>
@@ -32,19 +32,13 @@
     <t>Email</t>
   </si>
   <si>
-    <t>amitbh</t>
+    <t>Bhuban</t>
   </si>
   <si>
-    <t>Scond Officer</t>
+    <t>Master</t>
   </si>
   <si>
-    <t>abc@gmai.com</t>
-  </si>
-  <si>
-    <t>bingshu</t>
-  </si>
-  <si>
-    <t>Third Officer</t>
+    <t>master@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -536,18 +530,18 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -555,7 +549,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -569,7 +563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -583,21 +577,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -605,7 +593,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -613,7 +601,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -621,7 +609,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -629,7 +617,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -637,7 +625,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -645,7 +633,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -653,7 +641,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -661,7 +649,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -669,7 +657,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -677,7 +665,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -685,7 +673,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -693,7 +681,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -701,7 +689,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -709,7 +697,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -717,7 +705,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -725,7 +713,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -733,7 +721,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -744,7 +732,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{45F4C1E7-4291-42B5-AF4D-141BFEC9C19B}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{6FF49AA4-AF5C-4EC9-8AF0-6C881B4D1B3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId2"/>

--- a/Uploads/IMOcrewlistForm5.xlsx
+++ b/Uploads/IMOcrewlistForm5.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929908A7-67D3-4417-8A62-E145FFF6BEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E074BA9E-06DC-4CBF-8C32-F7C84083C489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>CREW LIST</t>
   </si>
@@ -32,13 +41,106 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Bhuban</t>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Messman</t>
+  </si>
+  <si>
+    <t>ETO</t>
+  </si>
+  <si>
+    <t>ETO CADET</t>
+  </si>
+  <si>
+    <t>PMAN</t>
+  </si>
+  <si>
+    <t>BSN</t>
+  </si>
+  <si>
+    <t>A/B</t>
+  </si>
+  <si>
+    <t>FTR</t>
+  </si>
+  <si>
+    <t>OLR</t>
+  </si>
+  <si>
+    <t>WPR</t>
   </si>
   <si>
     <t>Master</t>
   </si>
   <si>
-    <t>master@gmail.com</t>
+    <t>TR. Master</t>
+  </si>
+  <si>
+    <t>SR 2 Off</t>
+  </si>
+  <si>
+    <t>TR ETO</t>
+  </si>
+  <si>
+    <t>ChOff</t>
+  </si>
+  <si>
+    <t>TR ChOff</t>
+  </si>
+  <si>
+    <t>2Off</t>
+  </si>
+  <si>
+    <t>3Off</t>
+  </si>
+  <si>
+    <t>TR 3Off</t>
+  </si>
+  <si>
+    <t>ChEng</t>
+  </si>
+  <si>
+    <t>TR ChEng</t>
+  </si>
+  <si>
+    <t>2Eng</t>
+  </si>
+  <si>
+    <t>TR 2Eng</t>
+  </si>
+  <si>
+    <t>SR 3Eng</t>
+  </si>
+  <si>
+    <t>3Eng</t>
+  </si>
+  <si>
+    <t>4Eng</t>
+  </si>
+  <si>
+    <t>TR4 Eng</t>
+  </si>
+  <si>
+    <t>ChCook</t>
+  </si>
+  <si>
+    <t>SR. DkCdt</t>
+  </si>
+  <si>
+    <t>DkCdt</t>
+  </si>
+  <si>
+    <t>SR ErCdt</t>
+  </si>
+  <si>
+    <t>ErCdt</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Joi Das</t>
   </si>
 </sst>
 </file>
@@ -70,6 +172,7 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -80,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,8 +196,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -141,27 +250,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -170,23 +285,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -527,214 +648,552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="J18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    </row>
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="14" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C39" xr:uid="{0357A667-7A63-4DD0-A171-C2CCCDBECB16}">
+      <formula1>$J$3:$J$34</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rank Input" error="Choose from dropdown only" sqref="C3" xr:uid="{D1981397-2DD2-4790-B0FF-F8343D068493}">
+      <formula1>$J$3:$J$34</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{6FF49AA4-AF5C-4EC9-8AF0-6C881B4D1B3E}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{03D276EA-73DC-4B21-999F-434411109DD9}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{F31609E2-62D7-4C61-8C87-3555460DBF94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>